--- a/docs/log_matin.xlsx
+++ b/docs/log_matin.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\OneDrive\Documents\GitHub\cern_data\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27F511C0-0263-4DF3-B54C-7C000CC3F6B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31A0E5C8-717E-4F54-A300-585033B3441A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{4AE0CC9A-52C0-4A2A-9993-0024D38A6D68}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{4AE0CC9A-52C0-4A2A-9993-0024D38A6D68}"/>
   </bookViews>
   <sheets>
     <sheet name="13-06" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="28">
   <si>
     <t>Date</t>
   </si>
@@ -119,6 +119,9 @@
   </si>
   <si>
     <t>Physique</t>
+  </si>
+  <si>
+    <t>0.03</t>
   </si>
 </sst>
 </file>
@@ -474,8 +477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E76EC816-0DCD-4FE6-9E5B-B768DCD57ADF}">
   <dimension ref="A1:T73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="P59" sqref="P59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3920,8 +3923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31081A6E-CE3A-462C-8065-F9DBF1425E77}">
   <dimension ref="A1:T73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4002,7 +4005,9 @@
       <c r="A2" s="1">
         <v>45091</v>
       </c>
-      <c r="B2" s="2"/>
+      <c r="B2" s="2">
+        <v>0.42986111111111108</v>
+      </c>
       <c r="C2">
         <v>585</v>
       </c>
@@ -4010,12 +4015,48 @@
         <f>1</f>
         <v>1</v>
       </c>
+      <c r="E2">
+        <v>584.99</v>
+      </c>
+      <c r="F2">
+        <v>715</v>
+      </c>
+      <c r="G2">
+        <v>453</v>
+      </c>
+      <c r="H2">
+        <v>846.98</v>
+      </c>
+      <c r="I2">
+        <v>452.96</v>
+      </c>
+      <c r="J2">
+        <v>847.95</v>
+      </c>
       <c r="K2">
         <v>2</v>
       </c>
+      <c r="L2">
+        <v>25</v>
+      </c>
+      <c r="M2">
+        <v>7</v>
+      </c>
+      <c r="N2">
+        <v>31</v>
+      </c>
       <c r="P2">
-        <f t="shared" ref="P2:P65" si="0">I2+J2</f>
-        <v>0</v>
+        <f>I2+J2</f>
+        <v>1300.9100000000001</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>27</v>
+      </c>
+      <c r="R2">
+        <v>-5</v>
+      </c>
+      <c r="S2">
+        <v>0.91</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
@@ -4023,19 +4064,43 @@
         <v>11</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:F18" si="1">I2</f>
-        <v>0</v>
+        <f>I2</f>
+        <v>452.96</v>
       </c>
       <c r="F3">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>J2</f>
+        <v>847.95</v>
+      </c>
+      <c r="G3">
+        <v>585</v>
+      </c>
+      <c r="H3">
+        <v>715.92</v>
+      </c>
+      <c r="I3">
+        <v>575.78</v>
+      </c>
+      <c r="J3">
+        <v>714.04</v>
       </c>
       <c r="K3">
         <v>4</v>
       </c>
+      <c r="L3">
+        <v>6</v>
+      </c>
+      <c r="M3">
+        <v>16</v>
+      </c>
+      <c r="O3">
+        <v>22</v>
+      </c>
       <c r="P3">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>I3+J3</f>
+        <v>1289.82</v>
+      </c>
+      <c r="S3">
+        <v>-0.22</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
@@ -4044,19 +4109,47 @@
         <v>2</v>
       </c>
       <c r="E4">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" ref="E4:E27" si="0">I3</f>
+        <v>575.78</v>
       </c>
       <c r="F4">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" ref="F4:F27" si="1">J3</f>
+        <v>714.04</v>
+      </c>
+      <c r="G4">
+        <f>G2</f>
+        <v>453</v>
+      </c>
+      <c r="H4">
+        <v>846.8</v>
+      </c>
+      <c r="I4">
+        <v>452.99</v>
+      </c>
+      <c r="J4">
+        <v>847.6</v>
       </c>
       <c r="K4">
         <v>2</v>
       </c>
+      <c r="L4">
+        <v>28</v>
+      </c>
+      <c r="M4">
+        <v>6</v>
+      </c>
+      <c r="N4">
+        <v>29</v>
+      </c>
       <c r="P4">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" ref="P4:P67" si="2">I4+J4</f>
+        <v>1300.5900000000001</v>
+      </c>
+      <c r="Q4">
+        <v>0.1</v>
+      </c>
+      <c r="S4">
+        <v>0.6</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
@@ -4064,19 +4157,44 @@
         <v>11</v>
       </c>
       <c r="E5">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>452.99</v>
       </c>
       <c r="F5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>847.6</v>
+      </c>
+      <c r="G5">
+        <f t="shared" ref="G5:G68" si="3">G3</f>
+        <v>585</v>
+      </c>
+      <c r="H5">
+        <v>715.62</v>
+      </c>
+      <c r="I5">
+        <v>585.02</v>
+      </c>
+      <c r="J5">
+        <v>714.5</v>
       </c>
       <c r="K5">
         <v>4</v>
       </c>
+      <c r="L5">
+        <v>6.5</v>
+      </c>
+      <c r="M5">
+        <v>16</v>
+      </c>
+      <c r="O5">
+        <v>21</v>
+      </c>
       <c r="P5">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1299.52</v>
+      </c>
+      <c r="S5">
+        <v>-0.45</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
@@ -4085,19 +4203,47 @@
         <v>3</v>
       </c>
       <c r="E6">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>585.02</v>
       </c>
       <c r="F6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>714.5</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="3"/>
+        <v>453</v>
+      </c>
+      <c r="H6">
+        <v>846.53</v>
+      </c>
+      <c r="I6">
+        <v>453.01</v>
+      </c>
+      <c r="J6">
+        <v>847.38</v>
       </c>
       <c r="K6">
         <v>2</v>
       </c>
+      <c r="L6">
+        <v>30</v>
+      </c>
+      <c r="M6">
+        <v>6</v>
+      </c>
+      <c r="N6">
+        <v>30</v>
+      </c>
       <c r="P6">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1300.3899999999999</v>
+      </c>
+      <c r="Q6">
+        <v>0.12</v>
+      </c>
+      <c r="S6">
+        <v>0.4</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
@@ -4105,40 +4251,99 @@
         <v>11</v>
       </c>
       <c r="E7">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>453.01</v>
       </c>
       <c r="F7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>847.38</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="3"/>
+        <v>585</v>
+      </c>
+      <c r="H7">
+        <v>715.38</v>
+      </c>
+      <c r="I7">
+        <v>584.41999999999996</v>
+      </c>
+      <c r="J7">
+        <v>714.84</v>
       </c>
       <c r="K7">
         <v>4</v>
       </c>
+      <c r="L7">
+        <v>6</v>
+      </c>
+      <c r="M7">
+        <v>16</v>
+      </c>
+      <c r="N7">
+        <v>8</v>
+      </c>
+      <c r="O7">
+        <v>22</v>
+      </c>
       <c r="P7">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1299.26</v>
+      </c>
+      <c r="S7">
+        <v>-0.72</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D8">
-        <f t="shared" ref="D8" si="2">D6+1</f>
+        <f t="shared" ref="D8" si="4">D6+1</f>
         <v>4</v>
       </c>
       <c r="E8">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>584.41999999999996</v>
       </c>
       <c r="F8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>714.84</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="3"/>
+        <v>453</v>
+      </c>
+      <c r="H8">
+        <v>846.29</v>
+      </c>
+      <c r="I8">
+        <v>452.96</v>
+      </c>
+      <c r="J8">
+        <v>847.11</v>
       </c>
       <c r="K8">
         <v>2</v>
       </c>
+      <c r="L8">
+        <v>29</v>
+      </c>
+      <c r="M8">
+        <v>6</v>
+      </c>
+      <c r="N8">
+        <v>20</v>
+      </c>
       <c r="P8">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1300.07</v>
+      </c>
+      <c r="Q8">
+        <v>0.18</v>
+      </c>
+      <c r="R8">
+        <v>-3</v>
+      </c>
+      <c r="S8">
+        <v>0.12</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
@@ -4146,81 +4351,197 @@
         <v>11</v>
       </c>
       <c r="E9">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>452.96</v>
       </c>
       <c r="F9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>847.11</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="3"/>
+        <v>585</v>
+      </c>
+      <c r="H9">
+        <v>715.1</v>
+      </c>
+      <c r="I9">
+        <v>584.30999999999995</v>
+      </c>
+      <c r="J9">
+        <v>714.72</v>
       </c>
       <c r="K9">
         <v>4</v>
       </c>
+      <c r="L9">
+        <v>6.5</v>
+      </c>
+      <c r="M9">
+        <v>16</v>
+      </c>
+      <c r="O9">
+        <v>23</v>
+      </c>
       <c r="P9">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1299.03</v>
+      </c>
+      <c r="S9">
+        <v>-0.99</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D10">
-        <f t="shared" ref="D10" si="3">D8+1</f>
+        <f t="shared" ref="D10" si="5">D8+1</f>
         <v>5</v>
       </c>
       <c r="E10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>584.30999999999995</v>
       </c>
       <c r="F10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>714.72</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="3"/>
+        <v>453</v>
+      </c>
+      <c r="H10">
+        <v>846.06</v>
+      </c>
+      <c r="I10">
+        <v>452.5</v>
+      </c>
+      <c r="J10">
+        <v>847.39</v>
       </c>
       <c r="K10">
         <v>2</v>
       </c>
+      <c r="L10">
+        <v>25</v>
+      </c>
+      <c r="M10">
+        <v>6</v>
+      </c>
+      <c r="N10">
+        <v>29</v>
+      </c>
       <c r="P10">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1299.8899999999999</v>
+      </c>
+      <c r="Q10">
+        <v>0.06</v>
+      </c>
+      <c r="S10">
+        <v>-0.12</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B11" s="2"/>
       <c r="D11" t="s">
         <v>11</v>
       </c>
       <c r="E11">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>452.5</v>
       </c>
       <c r="F11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>847.39</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="3"/>
+        <v>585</v>
+      </c>
+      <c r="H11">
+        <v>714.88</v>
+      </c>
+      <c r="I11">
+        <v>584.02</v>
+      </c>
+      <c r="J11">
+        <v>714.78</v>
       </c>
       <c r="K11">
         <v>4</v>
       </c>
+      <c r="L11">
+        <v>6</v>
+      </c>
+      <c r="M11">
+        <v>16</v>
+      </c>
+      <c r="O11">
+        <v>23</v>
+      </c>
       <c r="P11">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1298.8</v>
+      </c>
+      <c r="R11">
+        <v>3</v>
+      </c>
+      <c r="S11">
+        <v>-1.21</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B12" s="2">
+        <v>0.4465277777777778</v>
+      </c>
       <c r="D12">
-        <f t="shared" ref="D12" si="4">D10+1</f>
+        <f t="shared" ref="D12" si="6">D10+1</f>
         <v>6</v>
       </c>
       <c r="E12">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>584.02</v>
       </c>
       <c r="F12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>714.78</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="3"/>
+        <v>453</v>
+      </c>
+      <c r="H12">
+        <v>845.81</v>
+      </c>
+      <c r="I12">
+        <v>453</v>
+      </c>
+      <c r="J12">
+        <v>846.51</v>
       </c>
       <c r="K12">
         <v>2</v>
       </c>
+      <c r="L12">
+        <v>30</v>
+      </c>
+      <c r="M12">
+        <v>6</v>
+      </c>
+      <c r="N12">
+        <v>30</v>
+      </c>
       <c r="P12">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1299.51</v>
+      </c>
+      <c r="Q12">
+        <v>0.08</v>
+      </c>
+      <c r="R12">
+        <v>-1</v>
+      </c>
+      <c r="S12">
+        <v>-0.45</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
@@ -4228,40 +4549,93 @@
         <v>11</v>
       </c>
       <c r="E13">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>453</v>
       </c>
       <c r="F13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>846.51</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="3"/>
+        <v>585</v>
+      </c>
+      <c r="H13">
+        <v>714.54</v>
+      </c>
+      <c r="I13">
+        <v>584.51</v>
+      </c>
+      <c r="J13">
+        <v>714.03</v>
       </c>
       <c r="K13">
         <v>4</v>
       </c>
+      <c r="L13">
+        <v>6.5</v>
+      </c>
+      <c r="M13">
+        <v>16</v>
+      </c>
+      <c r="O13">
+        <v>22</v>
+      </c>
       <c r="P13">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1298.54</v>
+      </c>
+      <c r="S13">
+        <v>-1.45</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D14">
-        <f t="shared" ref="D14" si="5">D12+1</f>
+        <f t="shared" ref="D14" si="7">D12+1</f>
         <v>7</v>
       </c>
       <c r="E14">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>584.51</v>
       </c>
       <c r="F14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>714.03</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="3"/>
+        <v>453</v>
+      </c>
+      <c r="H14">
+        <v>845.59</v>
+      </c>
+      <c r="I14">
+        <v>452.96</v>
+      </c>
+      <c r="J14">
+        <v>846.28</v>
       </c>
       <c r="K14">
         <v>2</v>
       </c>
+      <c r="L14">
+        <v>30</v>
+      </c>
+      <c r="M14">
+        <v>6</v>
+      </c>
+      <c r="N14">
+        <v>31</v>
+      </c>
       <c r="P14">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1299.24</v>
+      </c>
+      <c r="Q14">
+        <v>0.09</v>
+      </c>
+      <c r="S14">
+        <v>-0.7</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
@@ -4269,1209 +4643,2757 @@
         <v>11</v>
       </c>
       <c r="E15">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>452.96</v>
       </c>
       <c r="F15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>846.28</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="3"/>
+        <v>585</v>
+      </c>
+      <c r="H15">
+        <v>714.29</v>
+      </c>
+      <c r="I15">
+        <v>583.76</v>
+      </c>
+      <c r="J15">
+        <v>714.55</v>
       </c>
       <c r="K15">
         <v>4</v>
       </c>
+      <c r="L15">
+        <v>6</v>
+      </c>
+      <c r="M15">
+        <v>16</v>
+      </c>
+      <c r="O15">
+        <v>21</v>
+      </c>
       <c r="P15">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1298.31</v>
+      </c>
+      <c r="R15">
+        <v>4</v>
+      </c>
+      <c r="S15">
+        <v>-1.68</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D16">
-        <f t="shared" ref="D16" si="6">D14+1</f>
+        <f t="shared" ref="D16" si="8">D14+1</f>
         <v>8</v>
       </c>
       <c r="E16">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>583.76</v>
       </c>
       <c r="F16">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>714.55</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="3"/>
+        <v>453</v>
+      </c>
+      <c r="H16">
+        <v>845.3</v>
+      </c>
+      <c r="I16">
+        <v>452.99</v>
+      </c>
+      <c r="J16">
+        <v>845.95</v>
       </c>
       <c r="K16">
         <v>2</v>
       </c>
+      <c r="L16">
+        <v>27</v>
+      </c>
+      <c r="M16">
+        <v>6</v>
+      </c>
+      <c r="N16">
+        <v>27</v>
+      </c>
       <c r="P16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1298.94</v>
+      </c>
+      <c r="Q16">
+        <v>0.04</v>
+      </c>
+      <c r="S16">
+        <v>-1.05</v>
+      </c>
+    </row>
+    <row r="17" spans="2:19" x14ac:dyDescent="0.3">
       <c r="D17" t="s">
         <v>11</v>
       </c>
       <c r="E17">
-        <f>I16</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>452.99</v>
       </c>
       <c r="F17">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>845.95</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="3"/>
+        <v>585</v>
+      </c>
+      <c r="H17">
+        <v>713.94</v>
+      </c>
+      <c r="I17">
+        <v>583.14</v>
+      </c>
+      <c r="J17">
+        <v>714.92</v>
       </c>
       <c r="K17">
         <v>4</v>
       </c>
+      <c r="L17">
+        <v>6.5</v>
+      </c>
+      <c r="M17">
+        <v>16</v>
+      </c>
+      <c r="N17">
+        <v>9</v>
+      </c>
+      <c r="O17">
+        <v>23</v>
+      </c>
       <c r="P17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1298.06</v>
+      </c>
+      <c r="S17">
+        <v>-1.9</v>
+      </c>
+    </row>
+    <row r="18" spans="2:19" x14ac:dyDescent="0.3">
       <c r="D18">
-        <f t="shared" ref="D18" si="7">D16+1</f>
+        <f t="shared" ref="D18" si="9">D16+1</f>
         <v>9</v>
       </c>
       <c r="E18">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>583.14</v>
       </c>
       <c r="F18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>714.92</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="3"/>
+        <v>453</v>
+      </c>
+      <c r="H18">
+        <v>845.09</v>
+      </c>
+      <c r="I18">
+        <v>452.99</v>
+      </c>
+      <c r="J18">
+        <v>845.71</v>
       </c>
       <c r="K18">
         <v>2</v>
       </c>
+      <c r="L18">
+        <v>28</v>
+      </c>
+      <c r="M18">
+        <v>6</v>
+      </c>
+      <c r="N18">
+        <v>28</v>
+      </c>
       <c r="P18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1298.7</v>
+      </c>
+      <c r="Q18">
+        <v>0.04</v>
+      </c>
+      <c r="S18">
+        <v>-1.32</v>
+      </c>
+    </row>
+    <row r="19" spans="2:19" x14ac:dyDescent="0.3">
       <c r="D19" t="s">
         <v>11</v>
       </c>
       <c r="E19">
-        <f t="shared" ref="E19:F41" si="8">I18</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>452.99</v>
       </c>
       <c r="F19">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>845.71</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="3"/>
+        <v>585</v>
+      </c>
+      <c r="H19">
+        <v>713.69</v>
+      </c>
+      <c r="I19">
+        <v>582.79999999999995</v>
+      </c>
+      <c r="J19">
+        <v>715.02</v>
       </c>
       <c r="K19">
         <v>4</v>
       </c>
+      <c r="L19">
+        <v>7</v>
+      </c>
+      <c r="M19">
+        <v>16</v>
+      </c>
+      <c r="O19">
+        <v>23</v>
+      </c>
       <c r="P19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1297.82</v>
+      </c>
+      <c r="S19">
+        <v>-2.17</v>
+      </c>
+    </row>
+    <row r="20" spans="2:19" x14ac:dyDescent="0.3">
       <c r="D20">
-        <f t="shared" ref="D20" si="9">D18+1</f>
+        <f t="shared" ref="D20" si="10">D18+1</f>
         <v>10</v>
       </c>
       <c r="E20">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>582.79999999999995</v>
       </c>
       <c r="F20">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>715.02</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="3"/>
+        <v>453</v>
+      </c>
+      <c r="H20">
+        <v>844.84</v>
+      </c>
+      <c r="I20">
+        <v>453</v>
+      </c>
+      <c r="J20">
+        <v>845.39</v>
       </c>
       <c r="K20">
         <v>2</v>
       </c>
+      <c r="L20">
+        <v>28</v>
+      </c>
+      <c r="M20">
+        <v>6.5</v>
+      </c>
+      <c r="N20">
+        <v>32</v>
+      </c>
       <c r="P20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1298.3899999999999</v>
+      </c>
+      <c r="Q20">
+        <v>0.02</v>
+      </c>
+      <c r="S20">
+        <v>-1.6</v>
+      </c>
+    </row>
+    <row r="21" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B21" s="2"/>
       <c r="D21" t="s">
         <v>11</v>
       </c>
       <c r="E21">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>453</v>
       </c>
       <c r="F21">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>845.39</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="3"/>
+        <v>585</v>
+      </c>
+      <c r="H21">
+        <v>713.4</v>
+      </c>
+      <c r="I21">
+        <v>583.6</v>
+      </c>
+      <c r="J21">
+        <v>713.99</v>
       </c>
       <c r="K21">
         <v>4</v>
       </c>
+      <c r="L21">
+        <v>6.8</v>
+      </c>
+      <c r="M21">
+        <v>16</v>
+      </c>
+      <c r="O21">
+        <v>21</v>
+      </c>
       <c r="P21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1297.5900000000001</v>
+      </c>
+      <c r="S21">
+        <v>-2.4300000000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B22" s="2">
+        <v>0.46180555555555558</v>
+      </c>
       <c r="D22">
-        <f t="shared" ref="D22" si="10">D20+1</f>
+        <f t="shared" ref="D22" si="11">D20+1</f>
         <v>11</v>
       </c>
       <c r="E22">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>583.6</v>
       </c>
       <c r="F22">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>713.99</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="3"/>
+        <v>453</v>
+      </c>
+      <c r="H22">
+        <v>844.59</v>
+      </c>
+      <c r="I22">
+        <v>452.99</v>
+      </c>
+      <c r="J22">
+        <v>845.12</v>
       </c>
       <c r="K22">
         <v>2</v>
       </c>
+      <c r="L22">
+        <v>29</v>
+      </c>
+      <c r="M22">
+        <v>6</v>
+      </c>
+      <c r="N22">
+        <v>29</v>
+      </c>
       <c r="P22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1298.1100000000001</v>
+      </c>
+      <c r="Q22">
+        <v>0.08</v>
+      </c>
+      <c r="S22">
+        <v>-1.85</v>
+      </c>
+    </row>
+    <row r="23" spans="2:19" x14ac:dyDescent="0.3">
       <c r="D23" t="s">
         <v>11</v>
       </c>
       <c r="E23">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>452.99</v>
       </c>
       <c r="F23">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>845.12</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="3"/>
+        <v>585</v>
+      </c>
+      <c r="H23">
+        <v>713.13</v>
+      </c>
+      <c r="I23">
+        <v>583.63</v>
+      </c>
+      <c r="J23">
+        <v>713.71</v>
       </c>
       <c r="K23">
         <v>4</v>
       </c>
+      <c r="L23">
+        <v>7</v>
+      </c>
+      <c r="M23">
+        <v>16</v>
+      </c>
+      <c r="O23">
+        <v>23</v>
+      </c>
       <c r="P23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1297.3400000000001</v>
+      </c>
+      <c r="S23">
+        <v>-2.65</v>
+      </c>
+    </row>
+    <row r="24" spans="2:19" x14ac:dyDescent="0.3">
       <c r="D24">
-        <f t="shared" ref="D24" si="11">D22+1</f>
+        <f t="shared" ref="D24" si="12">D22+1</f>
         <v>12</v>
       </c>
       <c r="E24">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>583.63</v>
       </c>
       <c r="F24">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>713.71</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="3"/>
+        <v>453</v>
+      </c>
+      <c r="H24">
+        <v>844.36</v>
+      </c>
+      <c r="I24">
+        <v>453.03</v>
+      </c>
+      <c r="J24">
+        <v>844.85</v>
       </c>
       <c r="K24">
         <v>2</v>
       </c>
+      <c r="L24">
+        <v>30</v>
+      </c>
+      <c r="M24">
+        <v>6</v>
+      </c>
+      <c r="N24">
+        <v>31</v>
+      </c>
       <c r="P24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1297.8800000000001</v>
+      </c>
+      <c r="Q24">
+        <v>0.08</v>
+      </c>
+      <c r="S24">
+        <v>-2.11</v>
+      </c>
+    </row>
+    <row r="25" spans="2:19" x14ac:dyDescent="0.3">
       <c r="D25" t="s">
         <v>11</v>
       </c>
       <c r="E25">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>453.03</v>
       </c>
       <c r="F25">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>844.85</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="3"/>
+        <v>585</v>
+      </c>
+      <c r="H25">
+        <v>712.91</v>
+      </c>
+      <c r="I25">
+        <v>582.91999999999996</v>
+      </c>
+      <c r="J25">
+        <v>714.17</v>
       </c>
       <c r="K25">
         <v>4</v>
       </c>
+      <c r="L25">
+        <v>7</v>
+      </c>
+      <c r="M25">
+        <v>15</v>
+      </c>
+      <c r="O25">
+        <v>23</v>
+      </c>
       <c r="P25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1297.0899999999999</v>
+      </c>
+      <c r="S25">
+        <v>-2.91</v>
+      </c>
+    </row>
+    <row r="26" spans="2:19" x14ac:dyDescent="0.3">
       <c r="D26">
-        <f t="shared" ref="D26" si="12">D24+1</f>
+        <f t="shared" ref="D26" si="13">D24+1</f>
         <v>13</v>
       </c>
       <c r="E26">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>582.91999999999996</v>
       </c>
       <c r="F26">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>714.17</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="3"/>
+        <v>453</v>
+      </c>
+      <c r="H26">
+        <v>844.08</v>
+      </c>
+      <c r="I26">
+        <v>453</v>
+      </c>
+      <c r="J26">
+        <v>844.6</v>
       </c>
       <c r="K26">
         <v>2</v>
       </c>
+      <c r="L26">
+        <v>28</v>
+      </c>
+      <c r="M26">
+        <v>6</v>
+      </c>
+      <c r="N26">
+        <v>29</v>
+      </c>
       <c r="P26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1297.5999999999999</v>
+      </c>
+      <c r="Q26">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="S26">
+        <v>-2.41</v>
+      </c>
+    </row>
+    <row r="27" spans="2:19" x14ac:dyDescent="0.3">
       <c r="D27" t="s">
         <v>11</v>
       </c>
       <c r="E27">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>453</v>
       </c>
       <c r="F27">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>844.6</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="3"/>
+        <v>585</v>
+      </c>
+      <c r="H27">
+        <v>712.61</v>
+      </c>
+      <c r="I27">
+        <v>582.41</v>
+      </c>
+      <c r="J27">
+        <v>714.42</v>
       </c>
       <c r="K27">
         <v>4</v>
       </c>
+      <c r="L27">
+        <v>7</v>
+      </c>
+      <c r="M27">
+        <v>15</v>
+      </c>
+      <c r="O27">
+        <v>22</v>
+      </c>
       <c r="P27">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1296.83</v>
+      </c>
+      <c r="R27">
+        <v>6</v>
+      </c>
+      <c r="S27">
+        <v>-3.12</v>
+      </c>
+    </row>
+    <row r="28" spans="2:19" x14ac:dyDescent="0.3">
       <c r="D28">
         <f>D26+1</f>
         <v>14</v>
       </c>
       <c r="E28">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f>I27</f>
+        <v>582.41</v>
       </c>
       <c r="F28">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f>J27</f>
+        <v>714.42</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="3"/>
+        <v>453</v>
+      </c>
+      <c r="H28">
+        <v>843.88</v>
+      </c>
+      <c r="I28">
+        <v>453.01</v>
+      </c>
+      <c r="J28">
+        <v>844.31</v>
       </c>
       <c r="K28">
         <v>2</v>
       </c>
+      <c r="L28">
+        <v>30</v>
+      </c>
+      <c r="M28">
+        <v>6</v>
+      </c>
+      <c r="N28">
+        <v>31</v>
+      </c>
       <c r="P28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1297.32</v>
+      </c>
+      <c r="Q28">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="S28">
+        <v>-2.66</v>
+      </c>
+    </row>
+    <row r="29" spans="2:19" x14ac:dyDescent="0.3">
       <c r="D29" t="s">
         <v>11</v>
       </c>
       <c r="E29">
-        <f>I28</f>
-        <v>0</v>
+        <f t="shared" ref="E29:E52" si="14">I28</f>
+        <v>453.01</v>
       </c>
       <c r="F29">
-        <f>J28</f>
-        <v>0</v>
+        <f t="shared" ref="F29:F52" si="15">J28</f>
+        <v>844.31</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="3"/>
+        <v>585</v>
+      </c>
+      <c r="H29">
+        <v>712.35</v>
+      </c>
+      <c r="I29">
+        <v>581.69000000000005</v>
+      </c>
+      <c r="J29">
+        <v>714.94</v>
       </c>
       <c r="K29">
         <v>4</v>
       </c>
+      <c r="L29">
+        <v>6.5</v>
+      </c>
+      <c r="M29">
+        <v>16</v>
+      </c>
+      <c r="O29">
+        <v>22</v>
+      </c>
       <c r="P29">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1296.6300000000001</v>
+      </c>
+      <c r="Q29">
+        <v>1</v>
+      </c>
+      <c r="R29">
+        <v>5</v>
+      </c>
+      <c r="S29">
+        <v>-3.37</v>
+      </c>
+    </row>
+    <row r="30" spans="2:19" x14ac:dyDescent="0.3">
       <c r="D30">
         <f>D28+1</f>
         <v>15</v>
       </c>
       <c r="E30">
-        <f t="shared" ref="E30:F45" si="13">I29</f>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>581.69000000000005</v>
       </c>
       <c r="F30">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>714.94</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="3"/>
+        <v>453</v>
+      </c>
+      <c r="H30">
+        <v>843.63</v>
+      </c>
+      <c r="I30">
+        <v>453.02</v>
+      </c>
+      <c r="J30">
+        <v>844.05</v>
       </c>
       <c r="K30">
         <v>2</v>
       </c>
+      <c r="L30">
+        <v>29</v>
+      </c>
+      <c r="M30">
+        <v>6</v>
+      </c>
+      <c r="N30">
+        <v>30</v>
+      </c>
       <c r="P30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1297.07</v>
+      </c>
+      <c r="Q30">
+        <v>0.05</v>
+      </c>
+      <c r="S30">
+        <v>-2.92</v>
+      </c>
+    </row>
+    <row r="31" spans="2:19" x14ac:dyDescent="0.3">
       <c r="D31" t="s">
         <v>11</v>
       </c>
       <c r="E31">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>453.02</v>
       </c>
       <c r="F31">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>844.05</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="3"/>
+        <v>585</v>
+      </c>
+      <c r="H31">
+        <v>712.07</v>
+      </c>
+      <c r="I31">
+        <v>581.75</v>
+      </c>
+      <c r="J31">
+        <v>714.64</v>
       </c>
       <c r="K31">
         <v>4</v>
       </c>
+      <c r="L31">
+        <v>7</v>
+      </c>
+      <c r="M31">
+        <v>16</v>
+      </c>
+      <c r="O31">
+        <v>21</v>
+      </c>
       <c r="P31">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1296.3899999999999</v>
+      </c>
+      <c r="R31">
+        <v>6</v>
+      </c>
+      <c r="S31">
+        <v>-3.6</v>
+      </c>
+    </row>
+    <row r="32" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B32" s="2">
+        <v>0.47569444444444442</v>
+      </c>
       <c r="D32">
-        <f t="shared" ref="D32" si="14">D30+1</f>
+        <f t="shared" ref="D32" si="16">D30+1</f>
         <v>16</v>
       </c>
       <c r="E32">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>581.75</v>
       </c>
       <c r="F32">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>714.64</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="3"/>
+        <v>453</v>
+      </c>
+      <c r="H32">
+        <v>843.4</v>
+      </c>
+      <c r="I32">
+        <v>452.99</v>
+      </c>
+      <c r="J32">
+        <v>843.77</v>
       </c>
       <c r="K32">
         <v>2</v>
       </c>
+      <c r="L32">
+        <v>30</v>
+      </c>
+      <c r="M32">
+        <v>6</v>
+      </c>
+      <c r="N32">
+        <v>30</v>
+      </c>
       <c r="P32">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1296.76</v>
+      </c>
+      <c r="Q32">
+        <v>0.09</v>
+      </c>
+      <c r="S32">
+        <v>-3.2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.3">
       <c r="D33" t="s">
         <v>11</v>
       </c>
       <c r="E33">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>452.99</v>
       </c>
       <c r="F33">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>843.77</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="3"/>
+        <v>585</v>
+      </c>
+      <c r="H33">
+        <v>711.8</v>
+      </c>
+      <c r="I33">
+        <v>581.20000000000005</v>
+      </c>
+      <c r="J33">
+        <v>714.92</v>
       </c>
       <c r="K33">
         <v>4</v>
       </c>
+      <c r="L33">
+        <v>6.5</v>
+      </c>
+      <c r="M33">
+        <v>16</v>
+      </c>
+      <c r="O33">
+        <v>21</v>
+      </c>
       <c r="P33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1296.1199999999999</v>
+      </c>
+      <c r="R33">
+        <v>6</v>
+      </c>
+      <c r="S33">
+        <v>-3.84</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B34" s="2"/>
       <c r="D34">
-        <f t="shared" ref="D34" si="15">D32+1</f>
+        <f t="shared" ref="D34" si="17">D32+1</f>
         <v>17</v>
       </c>
       <c r="E34">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>581.20000000000005</v>
       </c>
       <c r="F34">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>714.92</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="3"/>
+        <v>453</v>
+      </c>
+      <c r="H34">
+        <v>843.16</v>
+      </c>
+      <c r="I34">
+        <v>453.02</v>
+      </c>
+      <c r="J34">
+        <v>843.51</v>
       </c>
       <c r="K34">
         <v>2</v>
       </c>
+      <c r="L34">
+        <v>28</v>
+      </c>
+      <c r="M34">
+        <v>6</v>
+      </c>
+      <c r="N34">
+        <v>31</v>
+      </c>
       <c r="P34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1296.53</v>
+      </c>
+      <c r="Q34">
+        <v>0.05</v>
+      </c>
+      <c r="S34">
+        <v>-3.45</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.3">
       <c r="D35" t="s">
         <v>11</v>
       </c>
       <c r="E35">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>453.02</v>
       </c>
       <c r="F35">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>843.51</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="3"/>
+        <v>585</v>
+      </c>
+      <c r="H35">
+        <v>711.55</v>
+      </c>
+      <c r="I35">
+        <v>581.20000000000005</v>
+      </c>
+      <c r="J35">
+        <v>714.71</v>
       </c>
       <c r="K35">
         <v>4</v>
       </c>
+      <c r="L35">
+        <v>7</v>
+      </c>
+      <c r="M35">
+        <v>16</v>
+      </c>
+      <c r="O35">
+        <v>21</v>
+      </c>
       <c r="P35">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1295.9100000000001</v>
+      </c>
+      <c r="R35">
+        <v>6</v>
+      </c>
+      <c r="S35">
+        <v>-4.09</v>
+      </c>
+    </row>
+    <row r="36" spans="2:19" x14ac:dyDescent="0.3">
       <c r="D36">
-        <f t="shared" ref="D36" si="16">D34+1</f>
+        <f t="shared" ref="D36" si="18">D34+1</f>
         <v>18</v>
       </c>
       <c r="E36">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>581.20000000000005</v>
       </c>
       <c r="F36">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>714.71</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="3"/>
+        <v>453</v>
+      </c>
+      <c r="H36">
+        <v>842.91</v>
+      </c>
+      <c r="I36">
+        <v>453.01</v>
+      </c>
+      <c r="J36">
+        <v>843.26</v>
       </c>
       <c r="K36">
         <v>2</v>
       </c>
+      <c r="L36">
+        <v>28</v>
+      </c>
+      <c r="M36">
+        <v>6</v>
+      </c>
+      <c r="N36">
+        <v>27</v>
+      </c>
       <c r="P36">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1296.27</v>
+      </c>
+      <c r="Q36">
+        <v>0.05</v>
+      </c>
+      <c r="S36">
+        <v>-3.72</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.3">
       <c r="D37" t="s">
         <v>11</v>
       </c>
       <c r="E37">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>453.01</v>
       </c>
       <c r="F37">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>843.26</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="3"/>
+        <v>585</v>
+      </c>
+      <c r="H37">
+        <v>711.28</v>
+      </c>
+      <c r="I37">
+        <v>580.77</v>
+      </c>
+      <c r="J37">
+        <v>714.93</v>
       </c>
       <c r="K37">
         <v>4</v>
       </c>
+      <c r="L37">
+        <v>6</v>
+      </c>
+      <c r="M37">
+        <v>16</v>
+      </c>
+      <c r="O37">
+        <v>23</v>
+      </c>
       <c r="P37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1295.6999999999998</v>
+      </c>
+      <c r="R37">
+        <v>5</v>
+      </c>
+      <c r="S37">
+        <v>-4.32</v>
+      </c>
+    </row>
+    <row r="38" spans="2:19" x14ac:dyDescent="0.3">
       <c r="D38">
-        <f t="shared" ref="D38" si="17">D36+1</f>
+        <f t="shared" ref="D38" si="19">D36+1</f>
         <v>19</v>
       </c>
       <c r="E38">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>580.77</v>
       </c>
       <c r="F38">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>714.93</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="3"/>
+        <v>453</v>
+      </c>
+      <c r="H38">
+        <v>842.69</v>
+      </c>
+      <c r="I38">
+        <v>453.01</v>
+      </c>
+      <c r="J38">
+        <v>842.98</v>
       </c>
       <c r="K38">
         <v>2</v>
       </c>
+      <c r="L38">
+        <v>32</v>
+      </c>
+      <c r="M38">
+        <v>6</v>
+      </c>
       <c r="P38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1295.99</v>
+      </c>
+      <c r="Q38">
+        <v>0.1</v>
+      </c>
+      <c r="S38">
+        <v>-3.96</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.3">
       <c r="D39" t="s">
         <v>11</v>
       </c>
       <c r="E39">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>453.01</v>
       </c>
       <c r="F39">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>842.98</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="3"/>
+        <v>585</v>
+      </c>
+      <c r="H39">
+        <v>711.03</v>
+      </c>
+      <c r="I39">
+        <v>580.63</v>
+      </c>
+      <c r="J39">
+        <v>714.82</v>
       </c>
       <c r="K39">
         <v>4</v>
       </c>
+      <c r="L39">
+        <v>6</v>
+      </c>
+      <c r="M39">
+        <v>16</v>
+      </c>
+      <c r="N39">
+        <v>8</v>
+      </c>
+      <c r="O39">
+        <v>22</v>
+      </c>
       <c r="P39">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1295.45</v>
+      </c>
+      <c r="R39">
+        <v>5</v>
+      </c>
+      <c r="S39">
+        <v>-4.55</v>
+      </c>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.3">
       <c r="D40">
-        <f t="shared" ref="D40" si="18">D38+1</f>
+        <f t="shared" ref="D40" si="20">D38+1</f>
         <v>20</v>
       </c>
       <c r="E40">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>580.63</v>
       </c>
       <c r="F40">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>714.82</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="3"/>
+        <v>453</v>
+      </c>
+      <c r="H40">
+        <v>842.45</v>
+      </c>
+      <c r="I40">
+        <v>453.01</v>
+      </c>
+      <c r="J40">
+        <v>842.74</v>
       </c>
       <c r="K40">
         <v>2</v>
       </c>
+      <c r="L40">
+        <v>30</v>
+      </c>
+      <c r="M40">
+        <v>6</v>
+      </c>
       <c r="P40">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1295.75</v>
+      </c>
+      <c r="Q40">
+        <v>0.09</v>
+      </c>
+      <c r="S40">
+        <v>-4.25</v>
+      </c>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.3">
       <c r="D41" t="s">
         <v>11</v>
       </c>
       <c r="E41">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>453.01</v>
       </c>
       <c r="F41">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>842.74</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="3"/>
+        <v>585</v>
+      </c>
+      <c r="H41">
+        <v>710.77</v>
+      </c>
+      <c r="I41">
+        <v>580.45000000000005</v>
+      </c>
+      <c r="J41">
+        <v>714.76</v>
       </c>
       <c r="K41">
         <v>4</v>
       </c>
+      <c r="L41">
+        <v>6.3</v>
+      </c>
+      <c r="M41">
+        <v>16</v>
+      </c>
+      <c r="O41">
+        <v>23</v>
+      </c>
       <c r="P41">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1295.21</v>
+      </c>
+      <c r="S41">
+        <v>-4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.3">
       <c r="D42">
-        <f t="shared" ref="D42" si="19">D40+1</f>
+        <f t="shared" ref="D42" si="21">D40+1</f>
         <v>21</v>
       </c>
       <c r="E42">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>580.45000000000005</v>
       </c>
       <c r="F42">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>714.76</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="3"/>
+        <v>453</v>
+      </c>
+      <c r="H42">
+        <v>842.2</v>
+      </c>
+      <c r="I42">
+        <v>453.02</v>
+      </c>
+      <c r="J42">
+        <v>842.45</v>
       </c>
       <c r="K42">
         <v>2</v>
       </c>
+      <c r="L42">
+        <v>30</v>
+      </c>
+      <c r="M42">
+        <v>6</v>
+      </c>
       <c r="P42">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1295.47</v>
+      </c>
+      <c r="Q42">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="S42">
+        <v>-4.5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.3">
       <c r="D43" t="s">
         <v>11</v>
       </c>
       <c r="E43">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>453.02</v>
       </c>
       <c r="F43">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>842.45</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="3"/>
+        <v>585</v>
+      </c>
+      <c r="H43">
+        <v>710.51</v>
+      </c>
+      <c r="I43">
+        <v>580.21</v>
+      </c>
+      <c r="J43">
+        <v>714.8</v>
       </c>
       <c r="K43">
         <v>4</v>
       </c>
+      <c r="L43">
+        <v>6.5</v>
+      </c>
+      <c r="M43">
+        <v>16</v>
+      </c>
+      <c r="O43">
+        <v>23</v>
+      </c>
       <c r="P43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1295.01</v>
+      </c>
+      <c r="R43">
+        <v>5</v>
+      </c>
+      <c r="S43">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.3">
       <c r="D44">
         <f>D42+1</f>
         <v>22</v>
       </c>
       <c r="E44">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>580.21</v>
       </c>
       <c r="F44">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>714.8</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="3"/>
+        <v>453</v>
+      </c>
+      <c r="H44">
+        <v>842.03</v>
+      </c>
+      <c r="I44">
+        <v>453.02</v>
+      </c>
+      <c r="J44">
+        <v>842.22</v>
       </c>
       <c r="K44">
         <v>2</v>
       </c>
+      <c r="L44">
+        <v>31</v>
+      </c>
+      <c r="M44">
+        <v>6</v>
+      </c>
       <c r="P44">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1295.24</v>
+      </c>
+      <c r="Q44">
+        <v>0.08</v>
+      </c>
+      <c r="S44">
+        <v>-4.7699999999999996</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.3">
       <c r="D45" t="s">
         <v>11</v>
       </c>
       <c r="E45">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>453.02</v>
       </c>
       <c r="F45">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>842.22</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="3"/>
+        <v>585</v>
+      </c>
+      <c r="H45">
+        <v>710.22</v>
+      </c>
+      <c r="I45">
+        <v>580.53</v>
+      </c>
+      <c r="J45">
+        <v>714.22</v>
       </c>
       <c r="K45">
         <v>4</v>
       </c>
+      <c r="L45">
+        <v>6.5</v>
+      </c>
+      <c r="M45">
+        <v>16</v>
+      </c>
+      <c r="O45">
+        <v>24</v>
+      </c>
       <c r="P45">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1294.75</v>
+      </c>
+      <c r="R45">
+        <v>6</v>
+      </c>
+      <c r="S45">
+        <v>-5.26</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.3">
       <c r="D46">
         <f>D44+1</f>
         <v>23</v>
       </c>
       <c r="E46">
-        <f t="shared" ref="E46:F82" si="20">I45</f>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>580.53</v>
       </c>
       <c r="F46">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>714.22</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="3"/>
+        <v>453</v>
+      </c>
+      <c r="H46">
+        <v>841.73</v>
+      </c>
+      <c r="I46">
+        <v>453</v>
+      </c>
+      <c r="J46">
+        <v>841.94</v>
       </c>
       <c r="K46">
         <v>2</v>
       </c>
+      <c r="L46">
+        <v>31</v>
+      </c>
+      <c r="M46">
+        <v>6</v>
+      </c>
       <c r="P46">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1294.94</v>
+      </c>
+      <c r="Q46">
+        <v>0.1</v>
+      </c>
+      <c r="S46">
+        <v>-5.0199999999999996</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.3">
       <c r="D47" t="s">
         <v>11</v>
       </c>
       <c r="E47">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>453</v>
       </c>
       <c r="F47">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>841.94</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="3"/>
+        <v>585</v>
+      </c>
+      <c r="H47">
+        <v>710</v>
+      </c>
+      <c r="I47">
+        <v>579.69000000000005</v>
+      </c>
+      <c r="J47">
+        <v>714.85</v>
       </c>
       <c r="K47">
         <v>4</v>
       </c>
+      <c r="L47">
+        <v>6</v>
+      </c>
+      <c r="M47">
+        <v>16</v>
+      </c>
+      <c r="O47">
+        <v>23</v>
+      </c>
       <c r="P47">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1294.54</v>
+      </c>
+      <c r="R47">
+        <v>6</v>
+      </c>
+      <c r="S47">
+        <v>-5.46</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.3">
       <c r="D48">
-        <f t="shared" ref="D48" si="21">D46+1</f>
+        <f t="shared" ref="D48" si="22">D46+1</f>
         <v>24</v>
       </c>
       <c r="E48">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>579.69000000000005</v>
       </c>
       <c r="F48">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>714.85</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="3"/>
+        <v>453</v>
+      </c>
+      <c r="H48">
+        <v>841.55</v>
+      </c>
+      <c r="I48">
+        <v>453</v>
+      </c>
+      <c r="J48">
+        <v>841.71</v>
       </c>
       <c r="K48">
         <v>2</v>
       </c>
+      <c r="L48">
+        <v>32</v>
+      </c>
+      <c r="M48">
+        <v>5</v>
+      </c>
+      <c r="N48">
+        <v>33</v>
+      </c>
       <c r="P48">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="2:16" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1294.71</v>
+      </c>
+      <c r="Q48">
+        <v>0.12</v>
+      </c>
+      <c r="S48">
+        <v>-5.27</v>
+      </c>
+    </row>
+    <row r="49" spans="2:19" x14ac:dyDescent="0.3">
       <c r="D49" t="s">
         <v>11</v>
       </c>
       <c r="E49">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>453</v>
       </c>
       <c r="F49">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>841.71</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="3"/>
+        <v>585</v>
+      </c>
+      <c r="H49">
+        <v>709.74</v>
+      </c>
+      <c r="I49">
+        <v>579.27</v>
+      </c>
+      <c r="J49">
+        <v>714.99</v>
       </c>
       <c r="K49">
         <v>4</v>
       </c>
+      <c r="L49">
+        <v>6.5</v>
+      </c>
+      <c r="M49">
+        <v>16</v>
+      </c>
+      <c r="O49">
+        <v>22</v>
+      </c>
       <c r="P49">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B50" s="2"/>
+        <f t="shared" si="2"/>
+        <v>1294.26</v>
+      </c>
+      <c r="R49">
+        <v>7</v>
+      </c>
+      <c r="S49">
+        <v>-5.68</v>
+      </c>
+    </row>
+    <row r="50" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B50" s="2">
+        <v>0.50138888888888888</v>
+      </c>
       <c r="D50">
-        <f t="shared" ref="D50" si="22">D48+1</f>
+        <f t="shared" ref="D50" si="23">D48+1</f>
         <v>25</v>
       </c>
       <c r="E50">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>579.27</v>
       </c>
       <c r="F50">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>714.99</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="3"/>
+        <v>453</v>
+      </c>
+      <c r="H50">
+        <v>841.3</v>
+      </c>
+      <c r="I50">
+        <v>452.99</v>
+      </c>
+      <c r="J50">
+        <v>841.46</v>
       </c>
       <c r="K50">
         <v>2</v>
       </c>
+      <c r="L50">
+        <v>29</v>
+      </c>
+      <c r="M50">
+        <v>6</v>
+      </c>
+      <c r="N50">
+        <v>28</v>
+      </c>
       <c r="P50">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="2:16" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1294.45</v>
+      </c>
+      <c r="Q50">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="S50">
+        <v>-5.53</v>
+      </c>
+    </row>
+    <row r="51" spans="2:19" x14ac:dyDescent="0.3">
       <c r="D51" t="s">
         <v>11</v>
       </c>
       <c r="E51">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>452.99</v>
       </c>
       <c r="F51">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>841.46</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="3"/>
+        <v>585</v>
+      </c>
+      <c r="H51">
+        <v>709.48</v>
+      </c>
+      <c r="I51">
+        <v>579.17999999999995</v>
+      </c>
+      <c r="J51">
+        <v>714.91</v>
       </c>
       <c r="K51">
         <v>4</v>
       </c>
+      <c r="L51">
+        <v>6</v>
+      </c>
+      <c r="M51">
+        <v>16</v>
+      </c>
+      <c r="O51">
+        <v>22</v>
+      </c>
       <c r="P51">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="2:16" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1294.0899999999999</v>
+      </c>
+      <c r="R51">
+        <v>6</v>
+      </c>
+      <c r="S51">
+        <v>-5.94</v>
+      </c>
+    </row>
+    <row r="52" spans="2:19" x14ac:dyDescent="0.3">
       <c r="D52">
-        <f t="shared" ref="D52" si="23">D50+1</f>
+        <f t="shared" ref="D52" si="24">D50+1</f>
         <v>26</v>
       </c>
       <c r="E52">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>579.17999999999995</v>
       </c>
       <c r="F52">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>714.91</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="3"/>
+        <v>453</v>
+      </c>
+      <c r="H52">
+        <v>841.06</v>
+      </c>
+      <c r="I52">
+        <v>453.01</v>
+      </c>
+      <c r="J52">
+        <v>841.16</v>
       </c>
       <c r="K52">
         <v>2</v>
       </c>
+      <c r="L52">
+        <v>28</v>
+      </c>
+      <c r="M52">
+        <v>6</v>
+      </c>
       <c r="P52">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="2:16" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1294.17</v>
+      </c>
+      <c r="Q52">
+        <v>0.03</v>
+      </c>
+      <c r="S52">
+        <v>-5.77</v>
+      </c>
+    </row>
+    <row r="53" spans="2:19" x14ac:dyDescent="0.3">
       <c r="D53" t="s">
         <v>11</v>
       </c>
       <c r="E53">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <f>I52</f>
+        <v>453.01</v>
       </c>
       <c r="F53">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <f>J52</f>
+        <v>841.16</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="3"/>
+        <v>585</v>
+      </c>
+      <c r="H53">
+        <v>709.23</v>
+      </c>
+      <c r="I53">
+        <v>579.01</v>
+      </c>
+      <c r="J53">
+        <v>714.85</v>
       </c>
       <c r="K53">
         <v>4</v>
       </c>
+      <c r="L53">
+        <v>6</v>
+      </c>
+      <c r="M53">
+        <v>16</v>
+      </c>
+      <c r="O53">
+        <v>25</v>
+      </c>
       <c r="P53">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="2:16" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1293.8600000000001</v>
+      </c>
+      <c r="R53">
+        <v>6</v>
+      </c>
+      <c r="S53">
+        <v>-6.16</v>
+      </c>
+    </row>
+    <row r="54" spans="2:19" x14ac:dyDescent="0.3">
       <c r="D54">
-        <f t="shared" ref="D54" si="24">D52+1</f>
+        <f t="shared" ref="D54" si="25">D52+1</f>
         <v>27</v>
       </c>
       <c r="E54">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <f t="shared" ref="E54:E71" si="26">I53</f>
+        <v>579.01</v>
       </c>
       <c r="F54">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <f t="shared" ref="F54:F71" si="27">J53</f>
+        <v>714.85</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="3"/>
+        <v>453</v>
+      </c>
+      <c r="H54">
+        <v>840.87</v>
+      </c>
+      <c r="I54">
+        <v>452.99</v>
+      </c>
+      <c r="J54">
+        <v>840.97</v>
       </c>
       <c r="K54">
         <v>2</v>
       </c>
+      <c r="L54">
+        <v>28</v>
+      </c>
+      <c r="M54">
+        <v>6</v>
+      </c>
       <c r="P54">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="2:16" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1293.96</v>
+      </c>
+      <c r="Q54">
+        <v>0.04</v>
+      </c>
+      <c r="R54">
+        <v>1</v>
+      </c>
+      <c r="S54">
+        <v>-6.01</v>
+      </c>
+    </row>
+    <row r="55" spans="2:19" x14ac:dyDescent="0.3">
       <c r="D55" t="s">
         <v>11</v>
       </c>
       <c r="E55">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <f t="shared" si="26"/>
+        <v>452.99</v>
       </c>
       <c r="F55">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <f t="shared" si="27"/>
+        <v>840.97</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="3"/>
+        <v>585</v>
+      </c>
+      <c r="H55">
+        <v>709</v>
+      </c>
+      <c r="I55">
+        <v>578.82000000000005</v>
+      </c>
+      <c r="J55">
+        <v>714.79</v>
       </c>
       <c r="K55">
         <v>4</v>
       </c>
+      <c r="L55">
+        <v>6</v>
+      </c>
+      <c r="M55">
+        <v>16</v>
+      </c>
+      <c r="O55">
+        <v>22</v>
+      </c>
       <c r="P55">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="2:16" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1293.6100000000001</v>
+      </c>
+      <c r="R55">
+        <v>6</v>
+      </c>
+      <c r="S55">
+        <v>-6.38</v>
+      </c>
+    </row>
+    <row r="56" spans="2:19" x14ac:dyDescent="0.3">
       <c r="D56">
-        <f t="shared" ref="D56:D70" si="25">D54+1</f>
+        <f t="shared" ref="D56:D70" si="28">D54+1</f>
         <v>28</v>
       </c>
       <c r="E56">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <f t="shared" si="26"/>
+        <v>578.82000000000005</v>
       </c>
       <c r="F56">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <f t="shared" si="27"/>
+        <v>714.79</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="3"/>
+        <v>453</v>
+      </c>
+      <c r="H56">
+        <v>840.63</v>
+      </c>
+      <c r="I56">
+        <v>453</v>
+      </c>
+      <c r="J56">
+        <v>840.71</v>
       </c>
       <c r="K56">
         <v>2</v>
       </c>
+      <c r="L56">
+        <v>27</v>
+      </c>
+      <c r="M56">
+        <v>6</v>
+      </c>
       <c r="P56">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="2:16" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1293.71</v>
+      </c>
+      <c r="Q56">
+        <v>0.04</v>
+      </c>
+      <c r="S56">
+        <v>-6.25</v>
+      </c>
+    </row>
+    <row r="57" spans="2:19" x14ac:dyDescent="0.3">
       <c r="D57" t="s">
         <v>11</v>
       </c>
       <c r="E57">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <f t="shared" si="26"/>
+        <v>453</v>
       </c>
       <c r="F57">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <f t="shared" si="27"/>
+        <v>840.71</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="3"/>
+        <v>585</v>
+      </c>
+      <c r="H57">
+        <v>708.75</v>
+      </c>
+      <c r="I57">
+        <v>579.41</v>
+      </c>
+      <c r="J57">
+        <v>713.98</v>
       </c>
       <c r="K57">
         <v>4</v>
       </c>
+      <c r="L57">
+        <v>6</v>
+      </c>
+      <c r="M57">
+        <v>16</v>
+      </c>
+      <c r="O57">
+        <v>21</v>
+      </c>
       <c r="P57">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="2:16" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1293.3899999999999</v>
+      </c>
+      <c r="R57">
+        <v>6</v>
+      </c>
+      <c r="S57">
+        <v>-6.63</v>
+      </c>
+    </row>
+    <row r="58" spans="2:19" x14ac:dyDescent="0.3">
       <c r="D58">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>29</v>
       </c>
       <c r="E58">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <f t="shared" si="26"/>
+        <v>579.41</v>
       </c>
       <c r="F58">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <f t="shared" si="27"/>
+        <v>713.98</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="3"/>
+        <v>453</v>
+      </c>
+      <c r="H58">
+        <v>840.4</v>
+      </c>
+      <c r="I58">
+        <v>453</v>
+      </c>
+      <c r="J58">
+        <v>840.45</v>
       </c>
       <c r="K58">
         <v>2</v>
       </c>
+      <c r="L58">
+        <v>27</v>
+      </c>
+      <c r="M58">
+        <v>6</v>
+      </c>
+      <c r="N58">
+        <v>28</v>
+      </c>
       <c r="P58">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="2:16" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1293.45</v>
+      </c>
+      <c r="Q58">
+        <v>0.02</v>
+      </c>
+      <c r="S58">
+        <v>-6.51</v>
+      </c>
+    </row>
+    <row r="59" spans="2:19" x14ac:dyDescent="0.3">
       <c r="D59" t="s">
         <v>11</v>
       </c>
       <c r="E59">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <f t="shared" si="26"/>
+        <v>453</v>
       </c>
       <c r="F59">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <f t="shared" si="27"/>
+        <v>840.45</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="3"/>
+        <v>585</v>
+      </c>
+      <c r="H59">
+        <v>708.5</v>
+      </c>
+      <c r="I59">
+        <v>578.25</v>
+      </c>
+      <c r="J59">
+        <v>714.93</v>
       </c>
       <c r="K59">
         <v>4</v>
       </c>
+      <c r="L59">
+        <v>6.5</v>
+      </c>
+      <c r="M59">
+        <v>16</v>
+      </c>
+      <c r="O59">
+        <v>22</v>
+      </c>
       <c r="P59">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="2:16" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1293.1799999999998</v>
+      </c>
+      <c r="R59">
+        <v>6</v>
+      </c>
+      <c r="S59">
+        <v>-6.82</v>
+      </c>
+    </row>
+    <row r="60" spans="2:19" x14ac:dyDescent="0.3">
       <c r="D60">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>30</v>
       </c>
       <c r="E60">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <f t="shared" si="26"/>
+        <v>578.25</v>
       </c>
       <c r="F60">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <f t="shared" si="27"/>
+        <v>714.93</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="3"/>
+        <v>453</v>
+      </c>
+      <c r="H60">
+        <v>840.18</v>
+      </c>
+      <c r="I60">
+        <v>453.01</v>
+      </c>
+      <c r="J60">
+        <v>840.21</v>
       </c>
       <c r="K60">
         <v>2</v>
       </c>
+      <c r="L60">
+        <v>28</v>
+      </c>
+      <c r="M60">
+        <v>6</v>
+      </c>
       <c r="P60">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="2:16" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1293.22</v>
+      </c>
+      <c r="Q60">
+        <v>0.03</v>
+      </c>
+      <c r="S60">
+        <v>-6.74</v>
+      </c>
+    </row>
+    <row r="61" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B61" s="2"/>
       <c r="D61" t="s">
         <v>11</v>
       </c>
       <c r="E61">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <f t="shared" si="26"/>
+        <v>453.01</v>
       </c>
       <c r="F61">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <f t="shared" si="27"/>
+        <v>840.21</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="3"/>
+        <v>585</v>
+      </c>
+      <c r="H61">
+        <v>708.26</v>
+      </c>
+      <c r="I61">
+        <v>578.26</v>
+      </c>
+      <c r="J61">
+        <v>714.62</v>
       </c>
       <c r="K61">
         <v>4</v>
       </c>
+      <c r="L61">
+        <v>6</v>
+      </c>
+      <c r="M61">
+        <v>16</v>
+      </c>
+      <c r="O61">
+        <v>22</v>
+      </c>
       <c r="P61">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="2:16" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1292.8800000000001</v>
+      </c>
+      <c r="S61">
+        <v>-7.06</v>
+      </c>
+    </row>
+    <row r="62" spans="2:19" x14ac:dyDescent="0.3">
       <c r="D62">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>31</v>
       </c>
       <c r="E62">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <f t="shared" si="26"/>
+        <v>578.26</v>
       </c>
       <c r="F62">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <f t="shared" si="27"/>
+        <v>714.62</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="3"/>
+        <v>453</v>
+      </c>
+      <c r="H62">
+        <v>839.94</v>
+      </c>
+      <c r="I62">
+        <v>453</v>
+      </c>
+      <c r="J62">
+        <v>840.01</v>
       </c>
       <c r="K62">
         <v>2</v>
       </c>
+      <c r="L62">
+        <v>27</v>
+      </c>
+      <c r="M62">
+        <v>6</v>
+      </c>
       <c r="P62">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="2:16" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1293.01</v>
+      </c>
+      <c r="Q62">
+        <v>0.03</v>
+      </c>
+      <c r="S62">
+        <v>-6.97</v>
+      </c>
+    </row>
+    <row r="63" spans="2:19" x14ac:dyDescent="0.3">
       <c r="D63" t="s">
         <v>11</v>
       </c>
       <c r="E63">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <f t="shared" si="26"/>
+        <v>453</v>
       </c>
       <c r="F63">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <f t="shared" si="27"/>
+        <v>840.01</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="3"/>
+        <v>585</v>
+      </c>
+      <c r="H63">
+        <v>708.03</v>
+      </c>
+      <c r="I63">
+        <v>579.13</v>
+      </c>
+      <c r="J63">
+        <v>713.57</v>
       </c>
       <c r="K63">
         <v>4</v>
       </c>
+      <c r="L63">
+        <v>7</v>
+      </c>
+      <c r="M63">
+        <v>16</v>
+      </c>
+      <c r="O63">
+        <v>23</v>
+      </c>
       <c r="P63">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="2:16" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1292.7</v>
+      </c>
+      <c r="R63">
+        <v>6</v>
+      </c>
+      <c r="S63">
+        <v>-7.28</v>
+      </c>
+    </row>
+    <row r="64" spans="2:19" x14ac:dyDescent="0.3">
       <c r="D64">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>32</v>
       </c>
       <c r="E64">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <f t="shared" si="26"/>
+        <v>579.13</v>
       </c>
       <c r="F64">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <f t="shared" si="27"/>
+        <v>713.57</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="3"/>
+        <v>453</v>
+      </c>
+      <c r="H64">
+        <v>839.71</v>
+      </c>
+      <c r="I64">
+        <v>453.01</v>
+      </c>
+      <c r="J64">
+        <v>839.75</v>
       </c>
       <c r="K64">
         <v>2</v>
       </c>
+      <c r="L64">
+        <v>27</v>
+      </c>
+      <c r="M64">
+        <v>6</v>
+      </c>
       <c r="P64">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1292.76</v>
+      </c>
+      <c r="Q64">
+        <v>0.03</v>
+      </c>
+      <c r="S64">
+        <v>-7.19</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.3">
       <c r="D65" t="s">
         <v>11</v>
       </c>
       <c r="E65">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <f t="shared" si="26"/>
+        <v>453.01</v>
       </c>
       <c r="F65">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <f t="shared" si="27"/>
+        <v>839.75</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="3"/>
+        <v>585</v>
+      </c>
+      <c r="H65">
+        <v>707.79</v>
+      </c>
+      <c r="I65">
+        <v>579.12</v>
+      </c>
+      <c r="J65">
+        <v>713.36</v>
       </c>
       <c r="K65">
         <v>4</v>
       </c>
+      <c r="L65">
+        <v>7</v>
+      </c>
+      <c r="M65">
+        <v>16</v>
+      </c>
+      <c r="O65">
+        <v>23</v>
+      </c>
       <c r="P65">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1292.48</v>
+      </c>
+      <c r="R65">
+        <v>6</v>
+      </c>
+      <c r="S65">
+        <v>-7.5</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B66" s="2"/>
       <c r="D66">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>33</v>
       </c>
       <c r="E66">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <f t="shared" si="26"/>
+        <v>579.12</v>
       </c>
       <c r="F66">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <f t="shared" si="27"/>
+        <v>713.36</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="3"/>
+        <v>453</v>
+      </c>
+      <c r="H66">
+        <v>839.49</v>
+      </c>
+      <c r="I66">
+        <v>452.99</v>
+      </c>
+      <c r="J66">
+        <v>839.55</v>
       </c>
       <c r="K66">
         <v>2</v>
       </c>
+      <c r="L66">
+        <v>27</v>
+      </c>
+      <c r="M66">
+        <v>6</v>
+      </c>
+      <c r="N66">
+        <v>30</v>
+      </c>
       <c r="P66">
-        <f t="shared" ref="P66:P71" si="26">I66+J66</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1292.54</v>
+      </c>
+      <c r="Q66">
+        <v>0.03</v>
+      </c>
+      <c r="S66">
+        <v>-7.4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.3">
       <c r="D67" t="s">
         <v>11</v>
       </c>
       <c r="E67">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <f t="shared" si="26"/>
+        <v>452.99</v>
       </c>
       <c r="F67">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <f t="shared" si="27"/>
+        <v>839.55</v>
+      </c>
+      <c r="G67">
+        <f t="shared" si="3"/>
+        <v>585</v>
+      </c>
+      <c r="H67">
+        <v>707.57</v>
+      </c>
+      <c r="I67">
+        <v>578.45000000000005</v>
+      </c>
+      <c r="J67">
+        <v>713.82</v>
       </c>
       <c r="K67">
         <v>4</v>
       </c>
+      <c r="L67">
+        <v>7</v>
+      </c>
+      <c r="M67">
+        <v>16</v>
+      </c>
+      <c r="O67">
+        <v>23</v>
+      </c>
       <c r="P67">
+        <f t="shared" si="2"/>
+        <v>1292.27</v>
+      </c>
+      <c r="R67">
+        <v>6</v>
+      </c>
+      <c r="S67">
+        <v>-7.75</v>
+      </c>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="D68">
+        <f t="shared" si="28"/>
+        <v>34</v>
+      </c>
+      <c r="E68">
         <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="D68">
-        <f t="shared" si="25"/>
-        <v>34</v>
-      </c>
-      <c r="E68">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <v>578.45000000000005</v>
       </c>
       <c r="F68">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <f t="shared" si="27"/>
+        <v>713.82</v>
+      </c>
+      <c r="G68">
+        <f t="shared" si="3"/>
+        <v>453</v>
+      </c>
+      <c r="H68">
+        <v>839.23</v>
+      </c>
+      <c r="I68">
+        <v>453.02</v>
+      </c>
+      <c r="J68">
+        <v>839.28</v>
       </c>
       <c r="K68">
         <v>2</v>
       </c>
+      <c r="L68">
+        <v>28</v>
+      </c>
+      <c r="M68">
+        <v>6</v>
+      </c>
       <c r="P68">
+        <f t="shared" ref="P68:P71" si="29">I68+J68</f>
+        <v>1292.3</v>
+      </c>
+      <c r="Q68">
+        <v>0.01</v>
+      </c>
+      <c r="S68">
+        <v>-7.69</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="D69" t="s">
+        <v>11</v>
+      </c>
+      <c r="E69">
         <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="D69" t="s">
-        <v>11</v>
-      </c>
-      <c r="E69">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <v>453.02</v>
       </c>
       <c r="F69">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <f t="shared" si="27"/>
+        <v>839.28</v>
+      </c>
+      <c r="G69">
+        <f t="shared" ref="G69:G71" si="30">G67</f>
+        <v>585</v>
+      </c>
+      <c r="H69">
+        <v>707.35</v>
+      </c>
+      <c r="I69">
+        <v>577.02</v>
+      </c>
+      <c r="J69">
+        <v>715.01</v>
       </c>
       <c r="K69">
         <v>4</v>
       </c>
+      <c r="L69">
+        <v>7</v>
+      </c>
+      <c r="M69">
+        <v>16</v>
+      </c>
+      <c r="O69">
+        <v>24</v>
+      </c>
       <c r="P69">
+        <f t="shared" si="29"/>
+        <v>1292.03</v>
+      </c>
+      <c r="S69">
+        <v>-7.97</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="D70">
+        <f t="shared" si="28"/>
+        <v>35</v>
+      </c>
+      <c r="E70">
         <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="D70">
-        <f t="shared" si="25"/>
-        <v>35</v>
-      </c>
-      <c r="E70">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <v>577.02</v>
       </c>
       <c r="F70">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <f t="shared" si="27"/>
+        <v>715.01</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="30"/>
+        <v>453</v>
+      </c>
+      <c r="H70">
+        <v>839.03</v>
+      </c>
+      <c r="I70">
+        <v>453.02</v>
+      </c>
+      <c r="J70">
+        <v>839.1</v>
       </c>
       <c r="K70">
         <v>2</v>
       </c>
+      <c r="L70">
+        <v>27</v>
+      </c>
+      <c r="M70">
+        <v>6</v>
+      </c>
       <c r="P70">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.3">
+        <f t="shared" si="29"/>
+        <v>1292.1199999999999</v>
+      </c>
+      <c r="Q70">
+        <v>0.04</v>
+      </c>
+      <c r="S70">
+        <v>-7.88</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B71" s="2"/>
       <c r="D71" t="s">
         <v>11</v>
       </c>
       <c r="E71">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <f t="shared" si="26"/>
+        <v>453.02</v>
       </c>
       <c r="F71">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <f t="shared" si="27"/>
+        <v>839.1</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="30"/>
+        <v>585</v>
+      </c>
+      <c r="H71">
+        <v>707.12</v>
+      </c>
+      <c r="I71">
+        <v>577.76</v>
+      </c>
+      <c r="J71">
+        <v>714.08</v>
       </c>
       <c r="K71">
         <v>4</v>
       </c>
+      <c r="L71">
+        <v>7</v>
+      </c>
+      <c r="M71">
+        <v>16</v>
+      </c>
+      <c r="O71">
+        <v>22</v>
+      </c>
       <c r="P71">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.3">
+        <f t="shared" si="29"/>
+        <v>1291.8400000000001</v>
+      </c>
+      <c r="R71">
+        <v>6</v>
+      </c>
+      <c r="S71">
+        <v>-8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B72" s="2">
+        <v>0.53472222222222221</v>
+      </c>
       <c r="D72" t="s">
         <v>22</v>
       </c>
-      <c r="E72">
-        <f>I71</f>
-        <v>0</v>
-      </c>
-      <c r="F72">
-        <f>J71</f>
-        <v>0</v>
-      </c>
-      <c r="G72" t="s">
-        <v>23</v>
-      </c>
-      <c r="H72" t="s">
-        <v>23</v>
-      </c>
-      <c r="I72" t="s">
-        <v>23</v>
-      </c>
-      <c r="J72" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="G72">
+        <v>605</v>
+      </c>
+      <c r="H72">
+        <v>686.81</v>
+      </c>
+      <c r="I72">
+        <v>597.08000000000004</v>
+      </c>
+      <c r="J72">
+        <v>694.7</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.3">
       <c r="F73" t="s">
         <v>24</v>
       </c>
       <c r="G73" t="s">
         <v>26</v>
       </c>
-      <c r="H73" t="s">
-        <v>23</v>
+      <c r="I73">
+        <v>603</v>
       </c>
     </row>
   </sheetData>
@@ -5483,8 +7405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD9AC109-68E3-4503-8214-B25FA761EB4A}">
   <dimension ref="A1:T73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5563,7 +7485,7 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>45091</v>
+        <v>45092</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2">
@@ -5573,6 +7495,9 @@
         <f>1</f>
         <v>1</v>
       </c>
+      <c r="G2">
+        <v>453</v>
+      </c>
       <c r="K2">
         <v>2</v>
       </c>
@@ -5592,6 +7517,9 @@
       <c r="F3">
         <f t="shared" si="1"/>
         <v>0</v>
+      </c>
+      <c r="G3">
+        <v>585</v>
       </c>
       <c r="K3">
         <v>4</v>
@@ -5614,6 +7542,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="G4">
+        <f>G2</f>
+        <v>453</v>
+      </c>
       <c r="K4">
         <v>2</v>
       </c>
@@ -5633,6 +7565,10 @@
       <c r="F5">
         <f t="shared" si="1"/>
         <v>0</v>
+      </c>
+      <c r="G5">
+        <f t="shared" ref="G5:G68" si="2">G3</f>
+        <v>585</v>
       </c>
       <c r="K5">
         <v>4</v>
@@ -5655,6 +7591,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="G6">
+        <f t="shared" si="2"/>
+        <v>453</v>
+      </c>
       <c r="K6">
         <v>2</v>
       </c>
@@ -5675,6 +7615,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="G7">
+        <f t="shared" si="2"/>
+        <v>585</v>
+      </c>
       <c r="K7">
         <v>4</v>
       </c>
@@ -5685,7 +7629,7 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D8">
-        <f t="shared" ref="D8" si="2">D6+1</f>
+        <f t="shared" ref="D8" si="3">D6+1</f>
         <v>4</v>
       </c>
       <c r="E8">
@@ -5696,6 +7640,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="G8">
+        <f t="shared" si="2"/>
+        <v>453</v>
+      </c>
       <c r="K8">
         <v>2</v>
       </c>
@@ -5716,6 +7664,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="G9">
+        <f t="shared" si="2"/>
+        <v>585</v>
+      </c>
       <c r="K9">
         <v>4</v>
       </c>
@@ -5726,7 +7678,7 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D10">
-        <f t="shared" ref="D10" si="3">D8+1</f>
+        <f t="shared" ref="D10" si="4">D8+1</f>
         <v>5</v>
       </c>
       <c r="E10">
@@ -5737,6 +7689,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="G10">
+        <f t="shared" si="2"/>
+        <v>453</v>
+      </c>
       <c r="K10">
         <v>2</v>
       </c>
@@ -5757,6 +7713,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="G11">
+        <f t="shared" si="2"/>
+        <v>585</v>
+      </c>
       <c r="K11">
         <v>4</v>
       </c>
@@ -5767,7 +7727,7 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D12">
-        <f t="shared" ref="D12" si="4">D10+1</f>
+        <f t="shared" ref="D12" si="5">D10+1</f>
         <v>6</v>
       </c>
       <c r="E12">
@@ -5778,6 +7738,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="G12">
+        <f t="shared" si="2"/>
+        <v>453</v>
+      </c>
       <c r="K12">
         <v>2</v>
       </c>
@@ -5798,6 +7762,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="G13">
+        <f t="shared" si="2"/>
+        <v>585</v>
+      </c>
       <c r="K13">
         <v>4</v>
       </c>
@@ -5808,7 +7776,7 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D14">
-        <f t="shared" ref="D14" si="5">D12+1</f>
+        <f t="shared" ref="D14" si="6">D12+1</f>
         <v>7</v>
       </c>
       <c r="E14">
@@ -5819,6 +7787,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="G14">
+        <f t="shared" si="2"/>
+        <v>453</v>
+      </c>
       <c r="K14">
         <v>2</v>
       </c>
@@ -5839,6 +7811,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="G15">
+        <f t="shared" si="2"/>
+        <v>585</v>
+      </c>
       <c r="K15">
         <v>4</v>
       </c>
@@ -5849,7 +7825,7 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D16">
-        <f t="shared" ref="D16" si="6">D14+1</f>
+        <f t="shared" ref="D16" si="7">D14+1</f>
         <v>8</v>
       </c>
       <c r="E16">
@@ -5860,6 +7836,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="G16">
+        <f t="shared" si="2"/>
+        <v>453</v>
+      </c>
       <c r="K16">
         <v>2</v>
       </c>
@@ -5880,6 +7860,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="G17">
+        <f t="shared" si="2"/>
+        <v>585</v>
+      </c>
       <c r="K17">
         <v>4</v>
       </c>
@@ -5890,7 +7874,7 @@
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.3">
       <c r="D18">
-        <f t="shared" ref="D18" si="7">D16+1</f>
+        <f t="shared" ref="D18" si="8">D16+1</f>
         <v>9</v>
       </c>
       <c r="E18">
@@ -5901,6 +7885,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="G18">
+        <f t="shared" si="2"/>
+        <v>453</v>
+      </c>
       <c r="K18">
         <v>2</v>
       </c>
@@ -5914,12 +7902,16 @@
         <v>11</v>
       </c>
       <c r="E19">
-        <f t="shared" ref="E19:F41" si="8">I18</f>
+        <f t="shared" ref="E19:F28" si="9">I18</f>
         <v>0</v>
       </c>
       <c r="F19">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="2"/>
+        <v>585</v>
       </c>
       <c r="K19">
         <v>4</v>
@@ -5931,16 +7923,20 @@
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.3">
       <c r="D20">
-        <f t="shared" ref="D20" si="9">D18+1</f>
+        <f t="shared" ref="D20" si="10">D18+1</f>
         <v>10</v>
       </c>
       <c r="E20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F20">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="2"/>
+        <v>453</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -5956,12 +7952,16 @@
         <v>11</v>
       </c>
       <c r="E21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F21">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="2"/>
+        <v>585</v>
       </c>
       <c r="K21">
         <v>4</v>
@@ -5973,16 +7973,20 @@
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.3">
       <c r="D22">
-        <f t="shared" ref="D22" si="10">D20+1</f>
+        <f t="shared" ref="D22" si="11">D20+1</f>
         <v>11</v>
       </c>
       <c r="E22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F22">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="2"/>
+        <v>453</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -5997,12 +8001,16 @@
         <v>11</v>
       </c>
       <c r="E23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F23">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="2"/>
+        <v>585</v>
       </c>
       <c r="K23">
         <v>4</v>
@@ -6014,16 +8022,20 @@
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.3">
       <c r="D24">
-        <f t="shared" ref="D24" si="11">D22+1</f>
+        <f t="shared" ref="D24" si="12">D22+1</f>
         <v>12</v>
       </c>
       <c r="E24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F24">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="2"/>
+        <v>453</v>
       </c>
       <c r="K24">
         <v>2</v>
@@ -6038,12 +8050,16 @@
         <v>11</v>
       </c>
       <c r="E25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F25">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="2"/>
+        <v>585</v>
       </c>
       <c r="K25">
         <v>4</v>
@@ -6055,16 +8071,20 @@
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.3">
       <c r="D26">
-        <f t="shared" ref="D26" si="12">D24+1</f>
+        <f t="shared" ref="D26" si="13">D24+1</f>
         <v>13</v>
       </c>
       <c r="E26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F26">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="2"/>
+        <v>453</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -6079,12 +8099,16 @@
         <v>11</v>
       </c>
       <c r="E27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F27">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="2"/>
+        <v>585</v>
       </c>
       <c r="K27">
         <v>4</v>
@@ -6100,12 +8124,16 @@
         <v>14</v>
       </c>
       <c r="E28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F28">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="2"/>
+        <v>453</v>
       </c>
       <c r="K28">
         <v>2</v>
@@ -6126,6 +8154,10 @@
       <c r="F29">
         <f>J28</f>
         <v>0</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="2"/>
+        <v>585</v>
       </c>
       <c r="K29">
         <v>4</v>
@@ -6141,12 +8173,16 @@
         <v>15</v>
       </c>
       <c r="E30">
-        <f t="shared" ref="E30:F45" si="13">I29</f>
+        <f t="shared" ref="E30:F45" si="14">I29</f>
         <v>0</v>
       </c>
       <c r="F30">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="2"/>
+        <v>453</v>
       </c>
       <c r="K30">
         <v>2</v>
@@ -6161,12 +8197,16 @@
         <v>11</v>
       </c>
       <c r="E31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F31">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="2"/>
+        <v>585</v>
       </c>
       <c r="K31">
         <v>4</v>
@@ -6178,16 +8218,20 @@
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.3">
       <c r="D32">
-        <f t="shared" ref="D32" si="14">D30+1</f>
+        <f t="shared" ref="D32" si="15">D30+1</f>
         <v>16</v>
       </c>
       <c r="E32">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F32">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="2"/>
+        <v>453</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -6202,12 +8246,16 @@
         <v>11</v>
       </c>
       <c r="E33">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F33">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="2"/>
+        <v>585</v>
       </c>
       <c r="K33">
         <v>4</v>
@@ -6220,16 +8268,20 @@
     <row r="34" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B34" s="2"/>
       <c r="D34">
-        <f t="shared" ref="D34" si="15">D32+1</f>
+        <f t="shared" ref="D34" si="16">D32+1</f>
         <v>17</v>
       </c>
       <c r="E34">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F34">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="2"/>
+        <v>453</v>
       </c>
       <c r="K34">
         <v>2</v>
@@ -6244,12 +8296,16 @@
         <v>11</v>
       </c>
       <c r="E35">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F35">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="2"/>
+        <v>585</v>
       </c>
       <c r="K35">
         <v>4</v>
@@ -6261,16 +8317,20 @@
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.3">
       <c r="D36">
-        <f t="shared" ref="D36" si="16">D34+1</f>
+        <f t="shared" ref="D36" si="17">D34+1</f>
         <v>18</v>
       </c>
       <c r="E36">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F36">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="2"/>
+        <v>453</v>
       </c>
       <c r="K36">
         <v>2</v>
@@ -6285,12 +8345,16 @@
         <v>11</v>
       </c>
       <c r="E37">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F37">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="2"/>
+        <v>585</v>
       </c>
       <c r="K37">
         <v>4</v>
@@ -6302,16 +8366,20 @@
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.3">
       <c r="D38">
-        <f t="shared" ref="D38" si="17">D36+1</f>
+        <f t="shared" ref="D38" si="18">D36+1</f>
         <v>19</v>
       </c>
       <c r="E38">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F38">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="2"/>
+        <v>453</v>
       </c>
       <c r="K38">
         <v>2</v>
@@ -6326,12 +8394,16 @@
         <v>11</v>
       </c>
       <c r="E39">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F39">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="2"/>
+        <v>585</v>
       </c>
       <c r="K39">
         <v>4</v>
@@ -6343,16 +8415,20 @@
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.3">
       <c r="D40">
-        <f t="shared" ref="D40" si="18">D38+1</f>
+        <f t="shared" ref="D40" si="19">D38+1</f>
         <v>20</v>
       </c>
       <c r="E40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F40">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="2"/>
+        <v>453</v>
       </c>
       <c r="K40">
         <v>2</v>
@@ -6367,12 +8443,16 @@
         <v>11</v>
       </c>
       <c r="E41">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F41">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="2"/>
+        <v>585</v>
       </c>
       <c r="K41">
         <v>4</v>
@@ -6384,16 +8464,20 @@
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.3">
       <c r="D42">
-        <f t="shared" ref="D42" si="19">D40+1</f>
+        <f t="shared" ref="D42" si="20">D40+1</f>
         <v>21</v>
       </c>
       <c r="E42">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F42">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="2"/>
+        <v>453</v>
       </c>
       <c r="K42">
         <v>2</v>
@@ -6408,12 +8492,16 @@
         <v>11</v>
       </c>
       <c r="E43">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F43">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="2"/>
+        <v>585</v>
       </c>
       <c r="K43">
         <v>4</v>
@@ -6429,12 +8517,16 @@
         <v>22</v>
       </c>
       <c r="E44">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F44">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="2"/>
+        <v>453</v>
       </c>
       <c r="K44">
         <v>2</v>
@@ -6449,12 +8541,16 @@
         <v>11</v>
       </c>
       <c r="E45">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F45">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="2"/>
+        <v>585</v>
       </c>
       <c r="K45">
         <v>4</v>
@@ -6470,12 +8566,16 @@
         <v>23</v>
       </c>
       <c r="E46">
-        <f t="shared" ref="E46:F82" si="20">I45</f>
+        <f t="shared" ref="E46:F71" si="21">I45</f>
         <v>0</v>
       </c>
       <c r="F46">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="2"/>
+        <v>453</v>
       </c>
       <c r="K46">
         <v>2</v>
@@ -6490,12 +8590,16 @@
         <v>11</v>
       </c>
       <c r="E47">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="F47">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="2"/>
+        <v>585</v>
       </c>
       <c r="K47">
         <v>4</v>
@@ -6507,16 +8611,20 @@
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.3">
       <c r="D48">
-        <f t="shared" ref="D48" si="21">D46+1</f>
+        <f t="shared" ref="D48" si="22">D46+1</f>
         <v>24</v>
       </c>
       <c r="E48">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="F48">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="2"/>
+        <v>453</v>
       </c>
       <c r="K48">
         <v>2</v>
@@ -6531,12 +8639,16 @@
         <v>11</v>
       </c>
       <c r="E49">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="F49">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="2"/>
+        <v>585</v>
       </c>
       <c r="K49">
         <v>4</v>
@@ -6549,16 +8661,20 @@
     <row r="50" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B50" s="2"/>
       <c r="D50">
-        <f t="shared" ref="D50" si="22">D48+1</f>
+        <f t="shared" ref="D50" si="23">D48+1</f>
         <v>25</v>
       </c>
       <c r="E50">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="F50">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="2"/>
+        <v>453</v>
       </c>
       <c r="K50">
         <v>2</v>
@@ -6573,12 +8689,16 @@
         <v>11</v>
       </c>
       <c r="E51">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="F51">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="2"/>
+        <v>585</v>
       </c>
       <c r="K51">
         <v>4</v>
@@ -6590,16 +8710,20 @@
     </row>
     <row r="52" spans="2:16" x14ac:dyDescent="0.3">
       <c r="D52">
-        <f t="shared" ref="D52" si="23">D50+1</f>
+        <f t="shared" ref="D52" si="24">D50+1</f>
         <v>26</v>
       </c>
       <c r="E52">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="F52">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="2"/>
+        <v>453</v>
       </c>
       <c r="K52">
         <v>2</v>
@@ -6614,12 +8738,16 @@
         <v>11</v>
       </c>
       <c r="E53">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="F53">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="2"/>
+        <v>585</v>
       </c>
       <c r="K53">
         <v>4</v>
@@ -6631,16 +8759,20 @@
     </row>
     <row r="54" spans="2:16" x14ac:dyDescent="0.3">
       <c r="D54">
-        <f t="shared" ref="D54" si="24">D52+1</f>
+        <f t="shared" ref="D54" si="25">D52+1</f>
         <v>27</v>
       </c>
       <c r="E54">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="F54">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="2"/>
+        <v>453</v>
       </c>
       <c r="K54">
         <v>2</v>
@@ -6655,12 +8787,16 @@
         <v>11</v>
       </c>
       <c r="E55">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="F55">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="2"/>
+        <v>585</v>
       </c>
       <c r="K55">
         <v>4</v>
@@ -6672,16 +8808,20 @@
     </row>
     <row r="56" spans="2:16" x14ac:dyDescent="0.3">
       <c r="D56">
-        <f t="shared" ref="D56:D70" si="25">D54+1</f>
+        <f t="shared" ref="D56:D70" si="26">D54+1</f>
         <v>28</v>
       </c>
       <c r="E56">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="F56">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="2"/>
+        <v>453</v>
       </c>
       <c r="K56">
         <v>2</v>
@@ -6696,12 +8836,16 @@
         <v>11</v>
       </c>
       <c r="E57">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="F57">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="2"/>
+        <v>585</v>
       </c>
       <c r="K57">
         <v>4</v>
@@ -6713,16 +8857,20 @@
     </row>
     <row r="58" spans="2:16" x14ac:dyDescent="0.3">
       <c r="D58">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>29</v>
       </c>
       <c r="E58">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="F58">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="2"/>
+        <v>453</v>
       </c>
       <c r="K58">
         <v>2</v>
@@ -6737,12 +8885,16 @@
         <v>11</v>
       </c>
       <c r="E59">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="F59">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="2"/>
+        <v>585</v>
       </c>
       <c r="K59">
         <v>4</v>
@@ -6754,16 +8906,20 @@
     </row>
     <row r="60" spans="2:16" x14ac:dyDescent="0.3">
       <c r="D60">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>30</v>
       </c>
       <c r="E60">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="F60">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="2"/>
+        <v>453</v>
       </c>
       <c r="K60">
         <v>2</v>
@@ -6779,12 +8935,16 @@
         <v>11</v>
       </c>
       <c r="E61">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="F61">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="2"/>
+        <v>585</v>
       </c>
       <c r="K61">
         <v>4</v>
@@ -6796,16 +8956,20 @@
     </row>
     <row r="62" spans="2:16" x14ac:dyDescent="0.3">
       <c r="D62">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>31</v>
       </c>
       <c r="E62">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="F62">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="2"/>
+        <v>453</v>
       </c>
       <c r="K62">
         <v>2</v>
@@ -6820,12 +8984,16 @@
         <v>11</v>
       </c>
       <c r="E63">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="F63">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="2"/>
+        <v>585</v>
       </c>
       <c r="K63">
         <v>4</v>
@@ -6837,16 +9005,20 @@
     </row>
     <row r="64" spans="2:16" x14ac:dyDescent="0.3">
       <c r="D64">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>32</v>
       </c>
       <c r="E64">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="F64">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="2"/>
+        <v>453</v>
       </c>
       <c r="K64">
         <v>2</v>
@@ -6861,12 +9033,16 @@
         <v>11</v>
       </c>
       <c r="E65">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="F65">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="2"/>
+        <v>585</v>
       </c>
       <c r="K65">
         <v>4</v>
@@ -6879,22 +9055,26 @@
     <row r="66" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B66" s="2"/>
       <c r="D66">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>33</v>
       </c>
       <c r="E66">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="F66">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="2"/>
+        <v>453</v>
       </c>
       <c r="K66">
         <v>2</v>
       </c>
       <c r="P66">
-        <f t="shared" ref="P66:P71" si="26">I66+J66</f>
+        <f t="shared" ref="P66:P71" si="27">I66+J66</f>
         <v>0</v>
       </c>
     </row>
@@ -6903,39 +9083,47 @@
         <v>11</v>
       </c>
       <c r="E67">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="F67">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <f t="shared" si="2"/>
+        <v>585</v>
       </c>
       <c r="K67">
         <v>4</v>
       </c>
       <c r="P67">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="2:16" x14ac:dyDescent="0.3">
       <c r="D68">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>34</v>
       </c>
       <c r="E68">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="F68">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <f t="shared" si="2"/>
+        <v>453</v>
       </c>
       <c r="K68">
         <v>2</v>
       </c>
       <c r="P68">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
@@ -6944,39 +9132,47 @@
         <v>11</v>
       </c>
       <c r="E69">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="F69">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <f t="shared" ref="G69:G71" si="28">G67</f>
+        <v>585</v>
       </c>
       <c r="K69">
         <v>4</v>
       </c>
       <c r="P69">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="2:16" x14ac:dyDescent="0.3">
       <c r="D70">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>35</v>
       </c>
       <c r="E70">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="F70">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="28"/>
+        <v>453</v>
       </c>
       <c r="K70">
         <v>2</v>
       </c>
       <c r="P70">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
@@ -6986,18 +9182,22 @@
         <v>11</v>
       </c>
       <c r="E71">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="F71">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="28"/>
+        <v>585</v>
       </c>
       <c r="K71">
         <v>4</v>
       </c>
       <c r="P71">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
